--- a/data/trans_dic/P02E$otras-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P02E$otras-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,06; 17,1</t>
+          <t>5,73; 17,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,97; 8,78</t>
+          <t>2,07; 8,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,14; 11,14</t>
+          <t>3,17; 10,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,17; 12,88</t>
+          <t>5,27; 12,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,53; 10,66</t>
+          <t>4,76; 10,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,57; 11,81</t>
+          <t>4,55; 13,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,54; 12,46</t>
+          <t>6,59; 13,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,29; 8,85</t>
+          <t>4,19; 8,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,9; 10,05</t>
+          <t>4,81; 10,33</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 11,12</t>
+          <t>3,54; 10,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 7,31</t>
+          <t>2,29; 6,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 6,17</t>
+          <t>1,61; 6,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,09; 9,74</t>
+          <t>3,98; 9,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,78; 8,34</t>
+          <t>3,86; 8,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,2; 12,3</t>
+          <t>6,09; 12,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,86; 8,9</t>
+          <t>4,61; 8,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,65; 6,91</t>
+          <t>3,65; 6,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,81; 8,97</t>
+          <t>4,87; 9,17</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,44; 16,36</t>
+          <t>5,61; 16,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,53; 8,3</t>
+          <t>2,57; 8,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 8,81</t>
+          <t>1,89; 8,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,41; 12,06</t>
+          <t>4,44; 11,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 6,23</t>
+          <t>2,25; 6,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,76; 13,18</t>
+          <t>5,46; 13,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,71; 11,73</t>
+          <t>6,05; 12,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 6,26</t>
+          <t>2,72; 6,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,77; 9,81</t>
+          <t>4,77; 9,66</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,56; 10,45</t>
+          <t>3,74; 11,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,5; 11,04</t>
+          <t>4,46; 11,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,96; 11,23</t>
+          <t>4,05; 11,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 5,27</t>
+          <t>1,19; 5,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,82; 7,21</t>
+          <t>2,89; 7,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,5; 15,77</t>
+          <t>8,44; 16,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,68; 6,29</t>
+          <t>2,62; 6,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,18; 7,72</t>
+          <t>4,03; 7,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,31; 12,74</t>
+          <t>7,33; 12,95</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,14; 10,62</t>
+          <t>6,22; 10,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,9; 6,88</t>
+          <t>3,82; 6,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,73; 6,89</t>
+          <t>3,68; 6,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,87; 7,9</t>
+          <t>4,65; 7,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,62</t>
+          <t>4,2; 6,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,65; 11,29</t>
+          <t>7,71; 11,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,68; 8,26</t>
+          <t>5,7; 8,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,44; 6,25</t>
+          <t>4,42; 6,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,58; 8,95</t>
+          <t>6,51; 9,09</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con ayuda al cuidado por parte de, al menos, una persona externa que es familiar, amigo/a, vecino/a, u otros</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>13928</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8941</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>10171</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>18566</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>21822</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15347</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>32494</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>30763</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>25518</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7518; 23103</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4113; 17358</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5091; 17369</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>11595; 27814</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>14203; 32366</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8955; 25877</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>23142; 46670</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>20838; 43105</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>17171; 36911</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>12971</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12428</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7980</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>20263</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>26178</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>31776</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>33234</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>38606</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>39756</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6962; 21296</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6949; 20669</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3821; 14876</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>12175; 29620</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>17664; 38397</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>21818; 43884</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>23207; 44653</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>27819; 52691</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>29016; 54665</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13015</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10583</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7297</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>14776</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13420</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>22137</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>27791</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>24004</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>29434</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7163; 21451</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5674; 18229</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3092; 14522</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8779; 22652</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7980; 22269</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13864; 33248</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19672; 39923</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15658; 35421</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19937; 40347</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>11486</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>19324</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>13647</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7596</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19142</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>35388</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>19082</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>38466</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>49035</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6378; 19051</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11673; 30561</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>7872; 22502</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3349; 15675</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>11729; 28899</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>25501; 48974</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>11851; 29672</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>26912; 50627</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>36380; 64310</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>51400</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>51276</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>39095</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>61201</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>80562</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>104647</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>112601</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>131838</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>143742</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>38959; 65075</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>37619; 67032</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>27861; 51102</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>46801; 77212</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>63709; 100977</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>85700; 126184</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>93071; 134732</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>110604; 158601</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>121619; 169745</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>